--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADF42F9-C97D-4983-A8B2-4931543090AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limti\PycharmProjects\DSA3101-Group-20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773F674-786A-4D5D-9C66-420931943BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId2"/>
-    <sheet name="Listings" sheetId="3" r:id="rId3"/>
-    <sheet name="Users" sheetId="4" r:id="rId4"/>
+    <sheet name="data" sheetId="5" r:id="rId2"/>
+    <sheet name="Contacts" sheetId="2" r:id="rId3"/>
+    <sheet name="Listings" sheetId="3" r:id="rId4"/>
+    <sheet name="Users" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="178">
   <si>
     <t>Data Dictionary Fields</t>
   </si>
@@ -322,13 +328,259 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Age of the customer</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>Type of job held by the customer</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>marital</t>
+  </si>
+  <si>
+    <t>Marital status of the customer</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Education level of the customer</t>
+  </si>
+  <si>
+    <t>tertiary</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Whether the customer has defaulted on credit (yes/no)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>Account balance of the customer</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>Whether the customer has a housing loan (1/0)</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>Whether the customer has a personal loan (1/0)</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Type of contact communication (e.g., unknown, telephone)</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Duration of last contact in seconds</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>Number of contacts performed during this campaign</t>
+  </si>
+  <si>
+    <t>pdays</t>
+  </si>
+  <si>
+    <t>Number of days since last contact from a previous campaign</t>
+  </si>
+  <si>
+    <t>-1 for not contacted</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>Number of contacts performed before this campaign</t>
+  </si>
+  <si>
+    <t>poutcome</t>
+  </si>
+  <si>
+    <t>Outcome of the previous marketing campaign</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Target variable indicating if the client has subscribed to a term deposit (yes/no)</t>
+  </si>
+  <si>
+    <t>cd_account</t>
+  </si>
+  <si>
+    <t>Indicates if the customer has a certificate of deposit account (1/0)</t>
+  </si>
+  <si>
+    <t>securities</t>
+  </si>
+  <si>
+    <t>Indicates if the customer has securities (1/0)</t>
+  </si>
+  <si>
+    <t>TransactionFrequency</t>
+  </si>
+  <si>
+    <t>Frequency of transactions made by the customer</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Recency</t>
+  </si>
+  <si>
+    <t>Number of days since the customerâ€™s last transaction</t>
+  </si>
+  <si>
+    <t>AverageTransactionAmount</t>
+  </si>
+  <si>
+    <t>Average amount per transaction for the customer</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Unique identifier for each customer</t>
+  </si>
+  <si>
+    <t>Bank_Personal_Loan_Modelling</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Years of professional experience</t>
+  </si>
+  <si>
+    <t>Non-negative values</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Annual income of the customer in $1000s</t>
+  </si>
+  <si>
+    <t>ZIP Code</t>
+  </si>
+  <si>
+    <t>ZIP code of the customerâ€™s residential area</t>
+  </si>
+  <si>
+    <t>5-digit ZIP codes</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Family size of the customer</t>
+  </si>
+  <si>
+    <t>Values from 1 to 4</t>
+  </si>
+  <si>
+    <t>CCAvg</t>
+  </si>
+  <si>
+    <t>Average spending on credit cards per month in $1000s</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Education level (1: Undergraduate, 2: Graduate, 3: Advanced/Professional)</t>
+  </si>
+  <si>
+    <t>1, 2, or 3</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Value of mortgage loan if any</t>
+  </si>
+  <si>
+    <t>Personal Loan</t>
+  </si>
+  <si>
+    <t>Target variable: 1 if the customer accepted a personal loan, 0 otherwise</t>
+  </si>
+  <si>
+    <t>Binary (0/1)</t>
+  </si>
+  <si>
+    <t>Securities Account</t>
+  </si>
+  <si>
+    <t>1 if the customer has a securities account, 0 otherwise</t>
+  </si>
+  <si>
+    <t>CD Account</t>
+  </si>
+  <si>
+    <t>1 if the customer has a certificate of deposit account, 0 otherwise</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>1 if the customer uses internet banking, 0 otherwise</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>1 if the customer has a credit card issued by the bank, 0 otherwise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,6 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,13 +997,13 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -773,7 +1026,7 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -781,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -789,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -797,7 +1050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -805,7 +1058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -813,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -821,7 +1074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -829,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -837,7 +1090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -845,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -853,7 +1106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -861,7 +1114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -869,109 +1122,109 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
     </row>
   </sheetData>
@@ -980,15 +1233,1368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF651693-53F4-488D-BA9A-7CE5CD24DF4D}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>2143</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>261</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>807.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26">
+        <v>91107</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>1.6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EDC482-A428-42E2-8206-C991B426A222}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.7109375" style="6" customWidth="1"/>
@@ -1004,7 +2610,7 @@
     <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +2648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1080,7 +2686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1118,7 +2724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1156,7 +2762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -1194,7 +2800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -1232,7 +2838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1270,7 +2876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -1308,7 +2914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -1346,7 +2952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
@@ -1384,7 +2990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -1422,7 +3028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
@@ -1460,7 +3066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="29.25">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1498,7 +3104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29.25">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -1536,7 +3142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="43.5">
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -1579,16 +3185,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894F1676-2AA9-4285-8FEA-50353C78EB2B}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1"/>
@@ -1601,7 +3207,7 @@
     <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +3245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +3283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1715,7 +3321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1753,7 +3359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1796,16 +3402,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190B0A03-4A29-4E4C-B76C-FC68AF11D2EF}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" style="6" customWidth="1"/>
@@ -1814,7 +3420,7 @@
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +3458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
@@ -1890,7 +3496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -1928,7 +3534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limti\PycharmProjects\DSA3101-Group-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l0337\Desktop\New folder (2)\Group-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773F674-786A-4D5D-9C66-420931943BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBFD279-9C75-4BE7-9A65-7A1B81A59766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId3"/>
-    <sheet name="Listings" sheetId="3" r:id="rId4"/>
-    <sheet name="Users" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="180">
   <si>
     <t>Data Dictionary Fields</t>
   </si>
@@ -117,219 +114,21 @@
     <t xml:space="preserve"> Relationships to other tables (e.g., foreign key constraints).</t>
   </si>
   <si>
-    <t>id_guest_anon</t>
-  </si>
-  <si>
-    <t>ID of the guest making the inquiry.</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>Primary Key, Not Null</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Contacts</t>
-  </si>
-  <si>
     <t>Primary Key</t>
   </si>
   <si>
-    <t>Foreign Key to Guests</t>
-  </si>
-  <si>
-    <t>id_host_anon</t>
-  </si>
-  <si>
-    <t>ID of the host of the listing to which the inquiry is made.</t>
-  </si>
-  <si>
-    <t>Not Null</t>
-  </si>
-  <si>
-    <t>Foreign Key</t>
-  </si>
-  <si>
-    <t>Foreign Key to Hosts</t>
-  </si>
-  <si>
-    <t>id_listing_anon</t>
-  </si>
-  <si>
-    <t>ID of the listing to which the inquiry is made.</t>
-  </si>
-  <si>
-    <t>Foreign Key to Listings</t>
-  </si>
-  <si>
-    <t>ts_interaction_first</t>
-  </si>
-  <si>
-    <t>UTC timestamp of the moment the inquiry is made.</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>UTC Timestamp</t>
-  </si>
-  <si>
-    <t>ts_reply_at_first</t>
-  </si>
-  <si>
-    <t>UTC timestamp of the moment the host replies to the inquiry, if so.</t>
-  </si>
-  <si>
-    <t>Nullable</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>ts_accepted_at_first</t>
-  </si>
-  <si>
-    <t>UTC timestamp of the moment the host accepts the inquiry, if so.</t>
-  </si>
-  <si>
-    <t>ts_booking_at</t>
-  </si>
-  <si>
-    <t>UTC timestamp of the moment the booking is made, if so.</t>
-  </si>
-  <si>
-    <t>ds_checkin_first</t>
-  </si>
-  <si>
-    <t>Date stamp of the check-in date of the inquiry.</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>ds_checkout_first</t>
-  </si>
-  <si>
-    <t>Date stamp of the check-out date of the inquiry.</t>
-  </si>
-  <si>
-    <t>m_guests</t>
-  </si>
-  <si>
-    <t>The number of guests the inquiry is for.</t>
-  </si>
-  <si>
-    <t>m_interactions</t>
-  </si>
-  <si>
-    <t>The total number of messages sent by both the guest and host.</t>
-  </si>
-  <si>
-    <t>m_first_message_length_in_characters</t>
-  </si>
-  <si>
-    <t>Number of characters in the first message sent by the guest, if a message was sent.</t>
-  </si>
-  <si>
-    <t>contact_channel_first</t>
-  </si>
-  <si>
-    <t>The contact channel through which the inquiry was made. One of {contact_me, book_it, instant_book}.</t>
-  </si>
-  <si>
     <t>Varchar</t>
   </si>
   <si>
-    <t>Categorical</t>
-  </si>
-  <si>
-    <t>contact_me</t>
-  </si>
-  <si>
-    <t>guest_user_stage_first</t>
-  </si>
-  <si>
-    <t>Indicates whether the user has made a booking before sending the inquiry ("past booker"). If the user has not booked before, then the user is a new user.</t>
-  </si>
-  <si>
-    <t>new_user</t>
-  </si>
-  <si>
-    <t>past_booker</t>
-  </si>
-  <si>
-    <t>Anonymized ID of the listing.</t>
-  </si>
-  <si>
-    <t>Listings</t>
-  </si>
-  <si>
-    <t>room_type</t>
-  </si>
-  <si>
-    <t>Indicates whether the room is an entire home, private room, or shared room.</t>
-  </si>
-  <si>
-    <t>entire_home</t>
-  </si>
-  <si>
-    <t>listing_neighborhood</t>
-  </si>
-  <si>
-    <t>The neighborhood of the listing.</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Downtown</t>
-  </si>
-  <si>
-    <t>total_reviews</t>
-  </si>
-  <si>
-    <t>The total number of reviews of the listing (at the time the data was pulled).</t>
-  </si>
-  <si>
-    <t>id_user_anon</t>
-  </si>
-  <si>
-    <t>Anonymized ID of the user.</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Foreign Key to Users</t>
-  </si>
-  <si>
-    <t>words_in_user_profile</t>
-  </si>
-  <si>
-    <t>The number of words in the “about me” section of the user’s Airbnb profile (at the time of contact).</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
-    <t>Origin country of the user.</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -574,6 +373,210 @@
   </si>
   <si>
     <t>1 if the customer has a credit card issued by the bank, 0 otherwise</t>
+  </si>
+  <si>
+    <t>RowNumber</t>
+  </si>
+  <si>
+    <t>Churn_Modelling</t>
+  </si>
+  <si>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Hargrave</t>
+  </si>
+  <si>
+    <t>CreditScore</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>NumOfProducts</t>
+  </si>
+  <si>
+    <t>HasCrCard</t>
+  </si>
+  <si>
+    <t>IsActiveMember</t>
+  </si>
+  <si>
+    <t>EstimatedSalary</t>
+  </si>
+  <si>
+    <t>Exited</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>Digital_Marketing_Campaign</t>
+  </si>
+  <si>
+    <t>CampaignChannel</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>CampaignType</t>
+  </si>
+  <si>
+    <t>AdSpend</t>
+  </si>
+  <si>
+    <t>ClickThroughRate</t>
+  </si>
+  <si>
+    <t>ConversionRate</t>
+  </si>
+  <si>
+    <t>WebsiteVisits</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>xxx xxx</t>
+  </si>
+  <si>
+    <t>Reviews_For_Classification</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>Updated Apr 4, 2022</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>review_head</t>
+  </si>
+  <si>
+    <t>The best in all that matters</t>
+  </si>
+  <si>
+    <t>review_body</t>
+  </si>
+  <si>
+    <t>A unique sequential number for each record, used as an index within the dataset.</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to each bank customer to track individual records.</t>
+  </si>
+  <si>
+    <t>Last name of the customer, primarily used for identification or demographic analysis.</t>
+  </si>
+  <si>
+    <t>A numerical score indicating the creditworthiness of the customer, with higher scores suggesting lower credit risk.</t>
+  </si>
+  <si>
+    <t>Customer’s country or region, indicating the geographical segmentation.</t>
+  </si>
+  <si>
+    <t>Customer’s gender, typically represented as 'Male' or 'Female'.</t>
+  </si>
+  <si>
+    <t>The age of the customer, often used for demographic analysis.</t>
+  </si>
+  <si>
+    <t>The number of years the customer has been with the bank.</t>
+  </si>
+  <si>
+    <t>The customer’s account balance, used to assess financial standing.</t>
+  </si>
+  <si>
+    <t>The number of products the customer has with the bank, such as loans, savings, or credit accounts.</t>
+  </si>
+  <si>
+    <t>A binary flag indicating whether the customer has a credit card (1 = Yes, 0 = No).</t>
+  </si>
+  <si>
+    <t>A binary flag showing if the customer is an active bank member (1 = Active, 0 = Inactive).</t>
+  </si>
+  <si>
+    <t>Estimated annual income of the customer.</t>
+  </si>
+  <si>
+    <t>Indicates if the customer has churned or left the bank (1 = Yes, 0 = No).</t>
+  </si>
+  <si>
+    <t>Unique identifier for each customer in the dataset.</t>
+  </si>
+  <si>
+    <t>Customer’s age, which can help in identifying target demographics.</t>
+  </si>
+  <si>
+    <t>Customer’s gender, represented as 'Male' or 'Female'.</t>
+  </si>
+  <si>
+    <t>Annual income of the customer.</t>
+  </si>
+  <si>
+    <t>The medium or channel used in the marketing campaign, such as 'Social Media' or 'Email'.</t>
+  </si>
+  <si>
+    <t>Type of campaign targeted at the customer, like 'Email' or 'Discount'.</t>
+  </si>
+  <si>
+    <t>Awareness</t>
+  </si>
+  <si>
+    <t>Amount of money spent on the advertisement per customer.</t>
+  </si>
+  <si>
+    <t>Percentage of people who clicked on the ad from the total impressions.</t>
+  </si>
+  <si>
+    <t>Percentage of clicks that resulted in conversions (purchases or actions).</t>
+  </si>
+  <si>
+    <t>The number of times the customer visited the company website.</t>
+  </si>
+  <si>
+    <t>Name of the product or service being reviewed.</t>
+  </si>
+  <si>
+    <t>The reviewer’s country, such as 'US' or 'GB'.</t>
+  </si>
+  <si>
+    <t>Date and time when the review was posted.</t>
+  </si>
+  <si>
+    <t>Rating provided by the customer, typically on a scale of 1 to 5.</t>
+  </si>
+  <si>
+    <t>A short headline summarizing the review.</t>
+  </si>
+  <si>
+    <t>The full text of the customer’s review, providing detailed feedback.</t>
+  </si>
+  <si>
+    <t>The best in all that matters! It's a great platform, easy and simple to use, and beginner-friendly. The only one in crypto that offers you to actually call a phone number and get to someone with your questions just like that. Highly recommend! I have been a customer for more than a year and I have only good things to say about Celsius network.</t>
   </si>
 </sst>
 </file>
@@ -626,36 +629,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,27 +983,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1234,16 +1213,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF651693-53F4-488D-BA9A-7CE5CD24DF4D}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="75.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
@@ -1290,2286 +1271,2434 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>2143</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>261</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H20">
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H21">
         <v>807.5</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H23">
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H24">
         <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H25">
         <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>156</v>
+      <c r="G26" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="H26">
         <v>91107</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H27">
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H28">
         <v>1.6</v>
       </c>
       <c r="I28" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <v>15634602</v>
+      </c>
+      <c r="I37" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" t="s">
+        <v>113</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <v>619</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48">
+        <v>101348.88</v>
+      </c>
+      <c r="I48" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>8000</v>
+      </c>
+      <c r="I50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <v>136912</v>
+      </c>
+      <c r="I53" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56">
+        <v>6497.8700684177657</v>
+      </c>
+      <c r="I56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>4.3918510735382998E-2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58">
+        <v>8.8031412072880996E-2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>130</v>
+      </c>
+      <c r="J58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>130</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" t="s">
+        <v>140</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s">
+        <v>141</v>
+      </c>
+      <c r="I61" t="s">
+        <v>140</v>
+      </c>
+      <c r="J61" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63" t="s">
+        <v>140</v>
+      </c>
+      <c r="J63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
         <v>146</v>
       </c>
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EDC482-A428-42E2-8206-C991B426A222}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="I64" t="s">
+        <v>140</v>
+      </c>
+      <c r="J64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="12">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5">
-        <v>987654321</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1122334455</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="7">
-        <v>45062.957499999997</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="7">
-        <v>45062.965416666666</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="7">
-        <v>45063.427430555559</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="7">
-        <v>45064.65625</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="8">
-        <v>45078</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="8">
-        <v>45084</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="12">
-        <v>500</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="5">
-        <v>150</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="12">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="12">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894F1676-2AA9-4285-8FEA-50353C78EB2B}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>1234567890</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190B0A03-4A29-4E4C-B76C-FC68AF11D2EF}">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="6" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="5">
-        <v>9876543210</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5">
-        <v>250</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5">
-        <v>50</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>29</v>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>179</v>
+      </c>
+      <c r="I65" t="s">
+        <v>140</v>
+      </c>
+      <c r="J65" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
